--- a/Data/Excel_Wide/camino_origin_wide.xlsx
+++ b/Data/Excel_Wide/camino_origin_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY225"/>
+  <dimension ref="A1:CA227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,16 @@
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
+          <t>Ponte de sa</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Corrubedo</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -833,37 +843,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34</v>
+      </c>
+      <c r="M2" t="n">
         <v>30</v>
       </c>
-      <c r="J2" t="n">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
       <c r="N2" t="n">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1052,7 +1062,13 @@
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -1068,28 +1084,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="E3" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1098,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="O3" t="n">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1287,7 +1303,13 @@
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>1401</v>
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -1303,28 +1325,28 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>742</v>
+        <v>1484</v>
       </c>
       <c r="E4" t="n">
-        <v>576</v>
+        <v>1152</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="H4" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="K4" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1333,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>602</v>
+        <v>1204</v>
       </c>
       <c r="O4" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1522,7 +1544,13 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>3105</v>
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -1538,28 +1566,28 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4851</v>
+        <v>9702</v>
       </c>
       <c r="E5" t="n">
-        <v>2362</v>
+        <v>4724</v>
       </c>
       <c r="F5" t="n">
-        <v>536</v>
+        <v>1072</v>
       </c>
       <c r="G5" t="n">
-        <v>757</v>
+        <v>1514</v>
       </c>
       <c r="H5" t="n">
-        <v>783</v>
+        <v>1566</v>
       </c>
       <c r="I5" t="n">
-        <v>392</v>
+        <v>784</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>1018</v>
       </c>
       <c r="K5" t="n">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1568,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2833</v>
+        <v>5666</v>
       </c>
       <c r="O5" t="n">
-        <v>1462</v>
+        <v>2924</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>464</v>
+        <v>928</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1757,7 +1785,13 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>15554</v>
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -1773,40 +1807,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2829</v>
+        <v>5658</v>
       </c>
       <c r="E6" t="n">
+        <v>4080</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1618</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3096</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2722</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1146</v>
+      </c>
+      <c r="K6" t="n">
         <v>2040</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>809</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1548</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1361</v>
-      </c>
-      <c r="J6" t="n">
-        <v>573</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1020</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="N6" t="n">
-        <v>4727</v>
+        <v>9454</v>
       </c>
       <c r="O6" t="n">
-        <v>1078</v>
+        <v>2156</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1815,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>415</v>
+        <v>830</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1992,7 +2026,13 @@
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>16860</v>
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -2008,40 +2048,40 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3314</v>
+        <v>6628</v>
       </c>
       <c r="E7" t="n">
-        <v>2466</v>
+        <v>4932</v>
       </c>
       <c r="F7" t="n">
-        <v>424</v>
+        <v>848</v>
       </c>
       <c r="G7" t="n">
-        <v>902</v>
+        <v>1804</v>
       </c>
       <c r="H7" t="n">
-        <v>1948</v>
+        <v>3896</v>
       </c>
       <c r="I7" t="n">
-        <v>1689</v>
+        <v>3378</v>
       </c>
       <c r="J7" t="n">
-        <v>731</v>
+        <v>1462</v>
       </c>
       <c r="K7" t="n">
-        <v>911</v>
+        <v>1822</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>483</v>
+        <v>966</v>
       </c>
       <c r="N7" t="n">
-        <v>5758</v>
+        <v>11516</v>
       </c>
       <c r="O7" t="n">
-        <v>669</v>
+        <v>1338</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2227,7 +2267,13 @@
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>19295</v>
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -2243,28 +2289,28 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>6271</v>
+        <v>12542</v>
       </c>
       <c r="E8" t="n">
-        <v>3685</v>
+        <v>7370</v>
       </c>
       <c r="F8" t="n">
-        <v>1124</v>
+        <v>2248</v>
       </c>
       <c r="G8" t="n">
-        <v>2668</v>
+        <v>5336</v>
       </c>
       <c r="H8" t="n">
-        <v>2027</v>
+        <v>4054</v>
       </c>
       <c r="I8" t="n">
-        <v>1265</v>
+        <v>2530</v>
       </c>
       <c r="J8" t="n">
-        <v>1738</v>
+        <v>3476</v>
       </c>
       <c r="K8" t="n">
-        <v>1817</v>
+        <v>3634</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2273,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8672</v>
+        <v>17344</v>
       </c>
       <c r="O8" t="n">
-        <v>2090</v>
+        <v>4180</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2288,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>534</v>
+        <v>1068</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -2462,7 +2508,13 @@
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>31891</v>
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -2478,28 +2530,28 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>9470</v>
+        <v>18940</v>
       </c>
       <c r="E9" t="n">
-        <v>4014</v>
+        <v>8028</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2845</v>
+        <v>5690</v>
       </c>
       <c r="H9" t="n">
-        <v>2980</v>
+        <v>5960</v>
       </c>
       <c r="I9" t="n">
-        <v>1643</v>
+        <v>3286</v>
       </c>
       <c r="J9" t="n">
-        <v>1560</v>
+        <v>3120</v>
       </c>
       <c r="K9" t="n">
-        <v>2349</v>
+        <v>4698</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2508,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12401</v>
+        <v>24802</v>
       </c>
       <c r="O9" t="n">
-        <v>2515</v>
+        <v>5030</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3179</v>
+        <v>6358</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2526,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2645</v>
+        <v>5290</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2697,7 +2749,13 @@
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>45601</v>
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -2713,40 +2771,40 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5788</v>
+        <v>11576</v>
       </c>
       <c r="E10" t="n">
-        <v>2315</v>
+        <v>4630</v>
       </c>
       <c r="F10" t="n">
-        <v>548</v>
+        <v>1096</v>
       </c>
       <c r="G10" t="n">
-        <v>1462</v>
+        <v>2924</v>
       </c>
       <c r="H10" t="n">
-        <v>1786</v>
+        <v>3572</v>
       </c>
       <c r="I10" t="n">
-        <v>1288</v>
+        <v>2576</v>
       </c>
       <c r="J10" t="n">
-        <v>977</v>
+        <v>1954</v>
       </c>
       <c r="K10" t="n">
-        <v>1361</v>
+        <v>2722</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>551</v>
+        <v>1102</v>
       </c>
       <c r="N10" t="n">
-        <v>5645</v>
+        <v>11290</v>
       </c>
       <c r="O10" t="n">
-        <v>1031</v>
+        <v>2062</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2932,7 +2990,13 @@
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>22752</v>
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -2948,28 +3012,28 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3846</v>
+        <v>7692</v>
       </c>
       <c r="E11" t="n">
-        <v>1447</v>
+        <v>2894</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>685</v>
+        <v>1370</v>
       </c>
       <c r="H11" t="n">
-        <v>1199</v>
+        <v>2398</v>
       </c>
       <c r="I11" t="n">
-        <v>1197</v>
+        <v>2394</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>950</v>
       </c>
       <c r="K11" t="n">
-        <v>702</v>
+        <v>1404</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2978,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3576</v>
+        <v>7152</v>
       </c>
       <c r="O11" t="n">
-        <v>685</v>
+        <v>1370</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>408</v>
+        <v>816</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2999,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>336</v>
+        <v>672</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -3167,7 +3231,13 @@
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>14556</v>
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -3183,28 +3253,28 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>983</v>
+        <v>1966</v>
       </c>
       <c r="E12" t="n">
-        <v>766</v>
+        <v>1532</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="H12" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="I12" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="J12" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="K12" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -3213,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1216</v>
+        <v>2432</v>
       </c>
       <c r="O12" t="n">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -3228,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3402,7 +3472,13 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>4410</v>
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -3418,43 +3494,43 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1474</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>222</v>
+      </c>
+      <c r="H13" t="n">
+        <v>362</v>
+      </c>
+      <c r="I13" t="n">
+        <v>208</v>
+      </c>
+      <c r="J13" t="n">
+        <v>128</v>
+      </c>
+      <c r="K13" t="n">
+        <v>258</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1718</v>
+      </c>
+      <c r="O13" t="n">
         <v>982</v>
       </c>
-      <c r="E13" t="n">
-        <v>737</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>111</v>
-      </c>
-      <c r="H13" t="n">
-        <v>181</v>
-      </c>
-      <c r="I13" t="n">
-        <v>104</v>
-      </c>
-      <c r="J13" t="n">
-        <v>64</v>
-      </c>
-      <c r="K13" t="n">
-        <v>129</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>859</v>
-      </c>
-      <c r="O13" t="n">
-        <v>491</v>
-      </c>
       <c r="P13" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -3466,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -3637,7 +3713,13 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>3802</v>
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -3653,40 +3735,40 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N14" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="O14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -3695,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -3872,7 +3954,13 @@
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -3888,40 +3976,40 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="E15" t="n">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -3930,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -3942,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -4107,7 +4195,13 @@
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>565</v>
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -4123,28 +4217,28 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1002</v>
+        <v>2004</v>
       </c>
       <c r="E16" t="n">
-        <v>395</v>
+        <v>790</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="G16" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="H16" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="K16" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -4153,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>746</v>
+        <v>1492</v>
       </c>
       <c r="O16" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4180,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="X16" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4342,7 +4436,13 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>3121</v>
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -4358,28 +4458,28 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>606</v>
+        <v>1212</v>
       </c>
       <c r="E17" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="F17" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="G17" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="H17" t="n">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="I17" t="n">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="J17" t="n">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="K17" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -4388,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>978</v>
+        <v>1956</v>
       </c>
       <c r="O17" t="n">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4415,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -4577,7 +4677,13 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>3307</v>
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -4593,37 +4699,37 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1049</v>
+        <v>2098</v>
       </c>
       <c r="E18" t="n">
-        <v>584</v>
+        <v>1168</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="H18" t="n">
-        <v>847</v>
+        <v>1694</v>
       </c>
       <c r="I18" t="n">
-        <v>1334</v>
+        <v>2668</v>
       </c>
       <c r="J18" t="n">
-        <v>311</v>
+        <v>622</v>
       </c>
       <c r="K18" t="n">
-        <v>678</v>
+        <v>1356</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="N18" t="n">
-        <v>2832</v>
+        <v>5664</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -4635,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>311</v>
+        <v>622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -4644,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>338</v>
+        <v>676</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -4812,7 +4918,13 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>9310</v>
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -4828,37 +4940,37 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1338</v>
+        <v>2676</v>
       </c>
       <c r="E19" t="n">
-        <v>612</v>
+        <v>1224</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>578</v>
+        <v>1156</v>
       </c>
       <c r="H19" t="n">
-        <v>1499</v>
+        <v>2998</v>
       </c>
       <c r="I19" t="n">
-        <v>1902</v>
+        <v>3804</v>
       </c>
       <c r="J19" t="n">
-        <v>486</v>
+        <v>972</v>
       </c>
       <c r="K19" t="n">
-        <v>884</v>
+        <v>1768</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>633</v>
+        <v>1266</v>
       </c>
       <c r="N19" t="n">
-        <v>3771</v>
+        <v>7542</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -4879,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>522</v>
+        <v>1044</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -4891,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -5047,7 +5159,13 @@
         <v>0</v>
       </c>
       <c r="BY19" t="n">
-        <v>12619</v>
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -5063,40 +5181,40 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>3337</v>
+        <v>6674</v>
       </c>
       <c r="E20" t="n">
-        <v>1637</v>
+        <v>3274</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1359</v>
+        <v>2718</v>
       </c>
       <c r="H20" t="n">
-        <v>1564</v>
+        <v>3128</v>
       </c>
       <c r="I20" t="n">
-        <v>1363</v>
+        <v>2726</v>
       </c>
       <c r="J20" t="n">
-        <v>1241</v>
+        <v>2482</v>
       </c>
       <c r="K20" t="n">
-        <v>1276</v>
+        <v>2552</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>514</v>
+        <v>1028</v>
       </c>
       <c r="N20" t="n">
-        <v>5488</v>
+        <v>10976</v>
       </c>
       <c r="O20" t="n">
-        <v>548</v>
+        <v>1096</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -5105,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>477</v>
+        <v>954</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -5282,7 +5400,13 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
-        <v>18804</v>
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -5298,28 +5422,28 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>4429</v>
+        <v>8858</v>
       </c>
       <c r="E21" t="n">
-        <v>2122</v>
+        <v>4244</v>
       </c>
       <c r="F21" t="n">
-        <v>744</v>
+        <v>1488</v>
       </c>
       <c r="G21" t="n">
-        <v>1928</v>
+        <v>3856</v>
       </c>
       <c r="H21" t="n">
-        <v>2706</v>
+        <v>5412</v>
       </c>
       <c r="I21" t="n">
-        <v>2034</v>
+        <v>4068</v>
       </c>
       <c r="J21" t="n">
-        <v>1144</v>
+        <v>2288</v>
       </c>
       <c r="K21" t="n">
-        <v>1797</v>
+        <v>3594</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -5328,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6410</v>
+        <v>12820</v>
       </c>
       <c r="O21" t="n">
-        <v>819</v>
+        <v>1638</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -5340,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>698</v>
+        <v>1396</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -5517,7 +5641,13 @@
         <v>0</v>
       </c>
       <c r="BY21" t="n">
-        <v>24831</v>
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -5533,37 +5663,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>1823</v>
+        <v>3646</v>
       </c>
       <c r="E22" t="n">
-        <v>1119</v>
+        <v>2238</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>757</v>
+        <v>1514</v>
       </c>
       <c r="H22" t="n">
-        <v>1190</v>
+        <v>2380</v>
       </c>
       <c r="I22" t="n">
-        <v>1363</v>
+        <v>2726</v>
       </c>
       <c r="J22" t="n">
-        <v>582</v>
+        <v>1164</v>
       </c>
       <c r="K22" t="n">
-        <v>1046</v>
+        <v>2092</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>456</v>
+        <v>912</v>
       </c>
       <c r="N22" t="n">
-        <v>3116</v>
+        <v>6232</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -5575,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>388</v>
+        <v>776</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -5584,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -5752,7 +5882,13 @@
         <v>0</v>
       </c>
       <c r="BY22" t="n">
-        <v>12168</v>
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -5768,37 +5904,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>933</v>
+        <v>1866</v>
       </c>
       <c r="E23" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="H23" t="n">
-        <v>747</v>
+        <v>1494</v>
       </c>
       <c r="I23" t="n">
-        <v>1193</v>
+        <v>2386</v>
       </c>
       <c r="J23" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="K23" t="n">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="N23" t="n">
-        <v>1799</v>
+        <v>3598</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -5819,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -5831,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -5987,7 +6123,13 @@
         <v>0</v>
       </c>
       <c r="BY23" t="n">
-        <v>6873</v>
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -6003,10 +6145,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="E24" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6015,25 +6157,25 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="I24" t="n">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="J24" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="K24" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N24" t="n">
-        <v>442</v>
+        <v>884</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -6045,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -6054,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -6066,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -6222,7 +6364,13 @@
         <v>0</v>
       </c>
       <c r="BY24" t="n">
-        <v>1388</v>
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -6238,28 +6386,28 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H25" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="I25" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -6268,16 +6416,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="O25" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -6304,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -6457,7 +6605,13 @@
         <v>0</v>
       </c>
       <c r="BY25" t="n">
-        <v>668</v>
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -6473,28 +6627,28 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H26" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J26" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K26" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -6503,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -6515,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -6530,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -6692,7 +6846,13 @@
         <v>0</v>
       </c>
       <c r="BY26" t="n">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -6708,28 +6868,28 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H27" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J27" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -6738,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -6750,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -6765,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -6777,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -6927,7 +7087,13 @@
         <v>0</v>
       </c>
       <c r="BY27" t="n">
-        <v>351</v>
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -6943,37 +7109,37 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="E28" t="n">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I28" t="n">
+        <v>120</v>
+      </c>
+      <c r="J28" t="n">
+        <v>72</v>
+      </c>
+      <c r="K28" t="n">
+        <v>196</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>60</v>
       </c>
-      <c r="J28" t="n">
-        <v>36</v>
-      </c>
-      <c r="K28" t="n">
-        <v>98</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>30</v>
-      </c>
       <c r="N28" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -6988,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -7162,7 +7328,13 @@
         <v>0</v>
       </c>
       <c r="BY28" t="n">
-        <v>1096</v>
+        <v>0</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -7178,28 +7350,28 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2058</v>
+        <v>4116</v>
       </c>
       <c r="E29" t="n">
-        <v>579</v>
+        <v>1158</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="H29" t="n">
-        <v>429</v>
+        <v>858</v>
       </c>
       <c r="I29" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="J29" t="n">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="K29" t="n">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -7208,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2213</v>
+        <v>4426</v>
       </c>
       <c r="O29" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -7235,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -7250,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -7397,7 +7569,13 @@
         <v>0</v>
       </c>
       <c r="BY29" t="n">
-        <v>7451</v>
+        <v>0</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -7413,37 +7591,37 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>1237</v>
+        <v>2474</v>
       </c>
       <c r="E30" t="n">
-        <v>516</v>
+        <v>1032</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>439</v>
+        <v>878</v>
       </c>
       <c r="H30" t="n">
-        <v>861</v>
+        <v>1722</v>
       </c>
       <c r="I30" t="n">
-        <v>1576</v>
+        <v>3152</v>
       </c>
       <c r="J30" t="n">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="K30" t="n">
-        <v>697</v>
+        <v>1394</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465</v>
+        <v>930</v>
       </c>
       <c r="N30" t="n">
-        <v>3106</v>
+        <v>6212</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -7455,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -7464,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>457</v>
+        <v>914</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -7632,7 +7810,13 @@
         <v>0</v>
       </c>
       <c r="BY30" t="n">
-        <v>10147</v>
+        <v>0</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -7648,37 +7832,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1374</v>
+        <v>2748</v>
       </c>
       <c r="E31" t="n">
-        <v>667</v>
+        <v>1334</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>543</v>
+        <v>1086</v>
       </c>
       <c r="H31" t="n">
-        <v>1411</v>
+        <v>2822</v>
       </c>
       <c r="I31" t="n">
-        <v>2131</v>
+        <v>4262</v>
       </c>
       <c r="J31" t="n">
-        <v>463</v>
+        <v>926</v>
       </c>
       <c r="K31" t="n">
-        <v>874</v>
+        <v>1748</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>629</v>
+        <v>1258</v>
       </c>
       <c r="N31" t="n">
-        <v>3948</v>
+        <v>7896</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -7699,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>578</v>
+        <v>1156</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -7711,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>393</v>
+        <v>786</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -7867,7 +8051,13 @@
         <v>0</v>
       </c>
       <c r="BY31" t="n">
-        <v>13011</v>
+        <v>0</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -7883,28 +8073,28 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>3070</v>
+        <v>6140</v>
       </c>
       <c r="E32" t="n">
-        <v>1337</v>
+        <v>2674</v>
       </c>
       <c r="F32" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="G32" t="n">
-        <v>1166</v>
+        <v>2332</v>
       </c>
       <c r="H32" t="n">
-        <v>1573</v>
+        <v>3146</v>
       </c>
       <c r="I32" t="n">
-        <v>1369</v>
+        <v>2738</v>
       </c>
       <c r="J32" t="n">
-        <v>1026</v>
+        <v>2052</v>
       </c>
       <c r="K32" t="n">
-        <v>1287</v>
+        <v>2574</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -7913,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>6444</v>
+        <v>12888</v>
       </c>
       <c r="O32" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -7925,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -8102,7 +8292,13 @@
         <v>0</v>
       </c>
       <c r="BY32" t="n">
-        <v>18720</v>
+        <v>0</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -8118,37 +8314,37 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>4729</v>
+        <v>9458</v>
       </c>
       <c r="E33" t="n">
-        <v>1985</v>
+        <v>3970</v>
       </c>
       <c r="F33" t="n">
-        <v>652</v>
+        <v>1304</v>
       </c>
       <c r="G33" t="n">
-        <v>1881</v>
+        <v>3762</v>
       </c>
       <c r="H33" t="n">
-        <v>2721</v>
+        <v>5442</v>
       </c>
       <c r="I33" t="n">
-        <v>2131</v>
+        <v>4262</v>
       </c>
       <c r="J33" t="n">
-        <v>1085</v>
+        <v>2170</v>
       </c>
       <c r="K33" t="n">
-        <v>1999</v>
+        <v>3998</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>725</v>
+        <v>1450</v>
       </c>
       <c r="N33" t="n">
-        <v>7552</v>
+        <v>15104</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -8160,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>723</v>
+        <v>1446</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -8337,7 +8533,13 @@
         <v>0</v>
       </c>
       <c r="BY33" t="n">
-        <v>26183</v>
+        <v>0</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -8353,37 +8555,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>2028</v>
+        <v>4056</v>
       </c>
       <c r="E34" t="n">
-        <v>821</v>
+        <v>1642</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>827</v>
+        <v>1654</v>
       </c>
       <c r="H34" t="n">
-        <v>1209</v>
+        <v>2418</v>
       </c>
       <c r="I34" t="n">
-        <v>1562</v>
+        <v>3124</v>
       </c>
       <c r="J34" t="n">
-        <v>631</v>
+        <v>1262</v>
       </c>
       <c r="K34" t="n">
-        <v>1042</v>
+        <v>2084</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="N34" t="n">
-        <v>3826</v>
+        <v>7652</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -8395,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -8404,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>464</v>
+        <v>928</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -8572,7 +8774,13 @@
         <v>0</v>
       </c>
       <c r="BY34" t="n">
-        <v>13470</v>
+        <v>0</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -8588,37 +8796,37 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>1080</v>
+        <v>2160</v>
       </c>
       <c r="E35" t="n">
-        <v>358</v>
+        <v>716</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>338</v>
+        <v>676</v>
       </c>
       <c r="H35" t="n">
-        <v>752</v>
+        <v>1504</v>
       </c>
       <c r="I35" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
       <c r="J35" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="K35" t="n">
-        <v>464</v>
+        <v>928</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="N35" t="n">
-        <v>2115</v>
+        <v>4230</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -8639,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -8651,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -8807,7 +9015,13 @@
         <v>0</v>
       </c>
       <c r="BY35" t="n">
-        <v>7700</v>
+        <v>0</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -8823,37 +9037,37 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="E36" t="n">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="H36" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="I36" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="N36" t="n">
-        <v>574</v>
+        <v>1148</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -8874,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -8898,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AD36" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -9042,7 +9256,13 @@
         <v>0</v>
       </c>
       <c r="BY36" t="n">
-        <v>1755</v>
+        <v>0</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -9058,59 +9278,59 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="E37" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="F37" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G37" t="n">
+        <v>88</v>
+      </c>
+      <c r="H37" t="n">
+        <v>246</v>
+      </c>
+      <c r="I37" t="n">
+        <v>144</v>
+      </c>
+      <c r="J37" t="n">
+        <v>52</v>
+      </c>
+      <c r="K37" t="n">
+        <v>62</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>456</v>
+      </c>
+      <c r="O37" t="n">
+        <v>118</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>44</v>
       </c>
-      <c r="H37" t="n">
-        <v>123</v>
-      </c>
-      <c r="I37" t="n">
-        <v>72</v>
-      </c>
-      <c r="J37" t="n">
-        <v>26</v>
-      </c>
-      <c r="K37" t="n">
-        <v>31</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>228</v>
-      </c>
-      <c r="O37" t="n">
-        <v>59</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>22</v>
-      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
@@ -9277,7 +9497,13 @@
         <v>0</v>
       </c>
       <c r="BY37" t="n">
-        <v>848</v>
+        <v>0</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -9293,40 +9519,40 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>56</v>
+      </c>
+      <c r="H38" t="n">
+        <v>70</v>
+      </c>
+      <c r="I38" t="n">
+        <v>80</v>
+      </c>
+      <c r="J38" t="n">
+        <v>38</v>
+      </c>
+      <c r="K38" t="n">
+        <v>52</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>28</v>
       </c>
-      <c r="H38" t="n">
-        <v>35</v>
-      </c>
-      <c r="I38" t="n">
-        <v>40</v>
-      </c>
-      <c r="J38" t="n">
-        <v>19</v>
-      </c>
-      <c r="K38" t="n">
-        <v>26</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>14</v>
-      </c>
       <c r="N38" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O38" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -9341,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -9512,7 +9738,13 @@
         <v>0</v>
       </c>
       <c r="BY38" t="n">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -9528,28 +9760,28 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="E39" t="n">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H39" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -9558,10 +9790,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="O39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -9573,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -9585,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -9609,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -9747,7 +9979,13 @@
         <v>0</v>
       </c>
       <c r="BY39" t="n">
-        <v>665</v>
+        <v>0</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -9763,77 +10001,77 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E40" t="n">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="H40" t="n">
+        <v>180</v>
+      </c>
+      <c r="I40" t="n">
+        <v>200</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>258</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>100</v>
+      </c>
+      <c r="N40" t="n">
+        <v>990</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>92</v>
+      </c>
+      <c r="S40" t="n">
+        <v>176</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
         <v>90</v>
       </c>
-      <c r="I40" t="n">
-        <v>100</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>129</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>50</v>
-      </c>
-      <c r="N40" t="n">
-        <v>495</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>46</v>
-      </c>
-      <c r="S40" t="n">
-        <v>88</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>45</v>
-      </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
@@ -9982,7 +10220,13 @@
         <v>0</v>
       </c>
       <c r="BY40" t="n">
-        <v>1680</v>
+        <v>0</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -9998,40 +10242,40 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>1845</v>
+        <v>3690</v>
       </c>
       <c r="E41" t="n">
-        <v>548</v>
+        <v>1096</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>392</v>
+        <v>784</v>
       </c>
       <c r="H41" t="n">
-        <v>459</v>
+        <v>918</v>
       </c>
       <c r="I41" t="n">
-        <v>588</v>
+        <v>1176</v>
       </c>
       <c r="J41" t="n">
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="K41" t="n">
-        <v>511</v>
+        <v>1022</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
       <c r="N41" t="n">
-        <v>2727</v>
+        <v>5454</v>
       </c>
       <c r="O41" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -10049,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -10217,7 +10461,13 @@
         <v>0</v>
       </c>
       <c r="BY41" t="n">
-        <v>8115</v>
+        <v>0</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -10233,37 +10483,37 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>1696</v>
+        <v>3392</v>
       </c>
       <c r="E42" t="n">
-        <v>685</v>
+        <v>1370</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>441</v>
+        <v>882</v>
       </c>
       <c r="H42" t="n">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="I42" t="n">
-        <v>2060</v>
+        <v>4120</v>
       </c>
       <c r="J42" t="n">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="K42" t="n">
-        <v>926</v>
+        <v>1852</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>686</v>
+        <v>1372</v>
       </c>
       <c r="N42" t="n">
-        <v>3954</v>
+        <v>7908</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -10275,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -10284,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>576</v>
+        <v>1152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -10452,7 +10702,13 @@
         <v>0</v>
       </c>
       <c r="BY42" t="n">
-        <v>12924</v>
+        <v>0</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -10468,37 +10724,37 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1857</v>
+        <v>3714</v>
       </c>
       <c r="E43" t="n">
-        <v>776</v>
+        <v>1552</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>594</v>
+        <v>1188</v>
       </c>
       <c r="H43" t="n">
-        <v>1335</v>
+        <v>2670</v>
       </c>
       <c r="I43" t="n">
-        <v>2742</v>
+        <v>5484</v>
       </c>
       <c r="J43" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
       <c r="K43" t="n">
-        <v>999</v>
+        <v>1998</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>704</v>
+        <v>1408</v>
       </c>
       <c r="N43" t="n">
-        <v>4657</v>
+        <v>9314</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -10510,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>444</v>
+        <v>888</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -10519,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>561</v>
+        <v>1122</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -10687,7 +10943,13 @@
         <v>0</v>
       </c>
       <c r="BY43" t="n">
-        <v>15182</v>
+        <v>0</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -10703,40 +10965,40 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>3206</v>
+        <v>6412</v>
       </c>
       <c r="E44" t="n">
-        <v>1349</v>
+        <v>2698</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1254</v>
+        <v>2508</v>
       </c>
       <c r="H44" t="n">
-        <v>1411</v>
+        <v>2822</v>
       </c>
       <c r="I44" t="n">
-        <v>1820</v>
+        <v>3640</v>
       </c>
       <c r="J44" t="n">
-        <v>1102</v>
+        <v>2204</v>
       </c>
       <c r="K44" t="n">
-        <v>1235</v>
+        <v>2470</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>495</v>
+        <v>990</v>
       </c>
       <c r="N44" t="n">
-        <v>7073</v>
+        <v>14146</v>
       </c>
       <c r="O44" t="n">
-        <v>672</v>
+        <v>1344</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -10745,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>539</v>
+        <v>1078</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -10922,7 +11184,13 @@
         <v>0</v>
       </c>
       <c r="BY44" t="n">
-        <v>20156</v>
+        <v>0</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -10938,40 +11206,40 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>5334</v>
+        <v>10668</v>
       </c>
       <c r="E45" t="n">
-        <v>2005</v>
+        <v>4010</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1868</v>
+        <v>3736</v>
       </c>
       <c r="H45" t="n">
-        <v>2449</v>
+        <v>4898</v>
       </c>
       <c r="I45" t="n">
-        <v>2483</v>
+        <v>4966</v>
       </c>
       <c r="J45" t="n">
-        <v>965</v>
+        <v>1930</v>
       </c>
       <c r="K45" t="n">
-        <v>2003</v>
+        <v>4006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>734</v>
+        <v>1468</v>
       </c>
       <c r="N45" t="n">
-        <v>7993</v>
+        <v>15986</v>
       </c>
       <c r="O45" t="n">
-        <v>826</v>
+        <v>1652</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -10980,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>629</v>
+        <v>1258</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11157,7 +11425,13 @@
         <v>0</v>
       </c>
       <c r="BY45" t="n">
-        <v>27289</v>
+        <v>0</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -11173,37 +11447,37 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>2593</v>
+        <v>5186</v>
       </c>
       <c r="E46" t="n">
-        <v>962</v>
+        <v>1924</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>886</v>
+        <v>1772</v>
       </c>
       <c r="H46" t="n">
-        <v>1154</v>
+        <v>2308</v>
       </c>
       <c r="I46" t="n">
-        <v>1936</v>
+        <v>3872</v>
       </c>
       <c r="J46" t="n">
-        <v>701</v>
+        <v>1402</v>
       </c>
       <c r="K46" t="n">
-        <v>1130</v>
+        <v>2260</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>531</v>
+        <v>1062</v>
       </c>
       <c r="N46" t="n">
-        <v>4540</v>
+        <v>9080</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11215,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>411</v>
+        <v>822</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -11224,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -11392,7 +11666,13 @@
         <v>0</v>
       </c>
       <c r="BY46" t="n">
-        <v>15282</v>
+        <v>0</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -11627,6 +11907,12 @@
         <v>0</v>
       </c>
       <c r="BY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA47" t="n">
         <v>9443</v>
       </c>
     </row>
@@ -11862,6 +12148,12 @@
         <v>0</v>
       </c>
       <c r="BY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA48" t="n">
         <v>2496</v>
       </c>
     </row>
@@ -12097,6 +12389,12 @@
         <v>0</v>
       </c>
       <c r="BY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA49" t="n">
         <v>795</v>
       </c>
     </row>
@@ -12332,6 +12630,12 @@
         <v>0</v>
       </c>
       <c r="BY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="n">
         <v>306</v>
       </c>
     </row>
@@ -12567,6 +12871,12 @@
         <v>0</v>
       </c>
       <c r="BY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA51" t="n">
         <v>703</v>
       </c>
     </row>
@@ -12802,6 +13112,12 @@
         <v>0</v>
       </c>
       <c r="BY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA52" t="n">
         <v>5327</v>
       </c>
     </row>
@@ -13037,6 +13353,12 @@
         <v>0</v>
       </c>
       <c r="BY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA53" t="n">
         <v>5648</v>
       </c>
     </row>
@@ -13272,6 +13594,12 @@
         <v>0</v>
       </c>
       <c r="BY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA54" t="n">
         <v>16001</v>
       </c>
     </row>
@@ -13507,6 +13835,12 @@
         <v>0</v>
       </c>
       <c r="BY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA55" t="n">
         <v>15904</v>
       </c>
     </row>
@@ -13742,6 +14076,12 @@
         <v>0</v>
       </c>
       <c r="BY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA56" t="n">
         <v>21066</v>
       </c>
     </row>
@@ -13977,6 +14317,12 @@
         <v>0</v>
       </c>
       <c r="BY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA57" t="n">
         <v>29996</v>
       </c>
     </row>
@@ -14212,6 +14558,12 @@
         <v>0</v>
       </c>
       <c r="BY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA58" t="n">
         <v>17378</v>
       </c>
     </row>
@@ -14447,6 +14799,12 @@
         <v>0</v>
       </c>
       <c r="BY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA59" t="n">
         <v>9878</v>
       </c>
     </row>
@@ -14682,6 +15040,12 @@
         <v>0</v>
       </c>
       <c r="BY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA60" t="n">
         <v>2309</v>
       </c>
     </row>
@@ -14917,6 +15281,12 @@
         <v>0</v>
       </c>
       <c r="BY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA61" t="n">
         <v>1085</v>
       </c>
     </row>
@@ -15152,6 +15522,12 @@
         <v>0</v>
       </c>
       <c r="BY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA62" t="n">
         <v>523</v>
       </c>
     </row>
@@ -15387,6 +15763,12 @@
         <v>0</v>
       </c>
       <c r="BY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA63" t="n">
         <v>698</v>
       </c>
     </row>
@@ -15622,6 +16004,12 @@
         <v>0</v>
       </c>
       <c r="BY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA64" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -15857,6 +16245,12 @@
         <v>0</v>
       </c>
       <c r="BY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA65" t="n">
         <v>10316</v>
       </c>
     </row>
@@ -16092,6 +16486,12 @@
         <v>0</v>
       </c>
       <c r="BY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA66" t="n">
         <v>16498</v>
       </c>
     </row>
@@ -16327,6 +16727,12 @@
         <v>0</v>
       </c>
       <c r="BY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA67" t="n">
         <v>19354</v>
       </c>
     </row>
@@ -16562,6 +16968,12 @@
         <v>0</v>
       </c>
       <c r="BY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA68" t="n">
         <v>26752</v>
       </c>
     </row>
@@ -16797,6 +17209,12 @@
         <v>0</v>
       </c>
       <c r="BY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA69" t="n">
         <v>35546</v>
       </c>
     </row>
@@ -17032,6 +17450,12 @@
         <v>0</v>
       </c>
       <c r="BY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA70" t="n">
         <v>20623</v>
       </c>
     </row>
@@ -17267,6 +17691,12 @@
         <v>0</v>
       </c>
       <c r="BY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA71" t="n">
         <v>11731</v>
       </c>
     </row>
@@ -17502,6 +17932,12 @@
         <v>0</v>
       </c>
       <c r="BY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA72" t="n">
         <v>2353</v>
       </c>
     </row>
@@ -17737,6 +18173,12 @@
         <v>0</v>
       </c>
       <c r="BY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA73" t="n">
         <v>1010</v>
       </c>
     </row>
@@ -17972,6 +18414,12 @@
         <v>0</v>
       </c>
       <c r="BY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA74" t="n">
         <v>1188</v>
       </c>
     </row>
@@ -18207,6 +18655,12 @@
         <v>0</v>
       </c>
       <c r="BY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA75" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -18442,6 +18896,12 @@
         <v>0</v>
       </c>
       <c r="BY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA76" t="n">
         <v>5883</v>
       </c>
     </row>
@@ -18677,6 +19137,12 @@
         <v>0</v>
       </c>
       <c r="BY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA77" t="n">
         <v>19587</v>
       </c>
     </row>
@@ -18912,6 +19378,12 @@
         <v>0</v>
       </c>
       <c r="BY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA78" t="n">
         <v>28846</v>
       </c>
     </row>
@@ -19147,6 +19619,12 @@
         <v>0</v>
       </c>
       <c r="BY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA79" t="n">
         <v>33756</v>
       </c>
     </row>
@@ -19382,6 +19860,12 @@
         <v>0</v>
       </c>
       <c r="BY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA80" t="n">
         <v>42466</v>
       </c>
     </row>
@@ -19617,6 +20101,12 @@
         <v>0</v>
       </c>
       <c r="BY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA81" t="n">
         <v>61534</v>
       </c>
     </row>
@@ -19852,6 +20342,12 @@
         <v>0</v>
       </c>
       <c r="BY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA82" t="n">
         <v>36848</v>
       </c>
     </row>
@@ -20087,6 +20583,12 @@
         <v>0</v>
       </c>
       <c r="BY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA83" t="n">
         <v>26598</v>
       </c>
     </row>
@@ -20322,6 +20824,12 @@
         <v>0</v>
       </c>
       <c r="BY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA84" t="n">
         <v>8075</v>
       </c>
     </row>
@@ -20557,6 +21065,12 @@
         <v>0</v>
       </c>
       <c r="BY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA85" t="n">
         <v>5967</v>
       </c>
     </row>
@@ -20792,6 +21306,12 @@
         <v>0</v>
       </c>
       <c r="BY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA86" t="n">
         <v>644</v>
       </c>
     </row>
@@ -21027,6 +21547,12 @@
         <v>0</v>
       </c>
       <c r="BY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA87" t="n">
         <v>820</v>
       </c>
     </row>
@@ -21262,6 +21788,12 @@
         <v>0</v>
       </c>
       <c r="BY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA88" t="n">
         <v>3023</v>
       </c>
     </row>
@@ -21497,6 +22029,12 @@
         <v>0</v>
       </c>
       <c r="BY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA89" t="n">
         <v>14154</v>
       </c>
     </row>
@@ -21732,6 +22270,12 @@
         <v>0</v>
       </c>
       <c r="BY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA90" t="n">
         <v>19805</v>
       </c>
     </row>
@@ -21967,6 +22511,12 @@
         <v>0</v>
       </c>
       <c r="BY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA91" t="n">
         <v>25239</v>
       </c>
     </row>
@@ -22202,6 +22752,12 @@
         <v>0</v>
       </c>
       <c r="BY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA92" t="n">
         <v>30842</v>
       </c>
     </row>
@@ -22437,6 +22993,12 @@
         <v>0</v>
       </c>
       <c r="BY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA93" t="n">
         <v>41489</v>
       </c>
     </row>
@@ -22672,6 +23234,12 @@
         <v>0</v>
       </c>
       <c r="BY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA94" t="n">
         <v>26023</v>
       </c>
     </row>
@@ -22907,6 +23475,12 @@
         <v>0</v>
       </c>
       <c r="BY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA95" t="n">
         <v>16243</v>
       </c>
     </row>
@@ -23142,6 +23716,12 @@
         <v>0</v>
       </c>
       <c r="BY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA96" t="n">
         <v>3591</v>
       </c>
     </row>
@@ -23377,6 +23957,12 @@
         <v>0</v>
       </c>
       <c r="BY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA97" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -23612,6 +24198,12 @@
         <v>0</v>
       </c>
       <c r="BY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA98" t="n">
         <v>872</v>
       </c>
     </row>
@@ -23847,6 +24439,12 @@
         <v>0</v>
       </c>
       <c r="BY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA99" t="n">
         <v>1305</v>
       </c>
     </row>
@@ -24082,6 +24680,12 @@
         <v>0</v>
       </c>
       <c r="BY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA100" t="n">
         <v>3260</v>
       </c>
     </row>
@@ -24317,6 +24921,12 @@
         <v>0</v>
       </c>
       <c r="BY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA101" t="n">
         <v>14749</v>
       </c>
     </row>
@@ -24552,6 +25162,12 @@
         <v>0</v>
       </c>
       <c r="BY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA102" t="n">
         <v>21776</v>
       </c>
     </row>
@@ -24787,6 +25403,12 @@
         <v>0</v>
       </c>
       <c r="BY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA103" t="n">
         <v>25517</v>
       </c>
     </row>
@@ -25022,6 +25644,12 @@
         <v>0</v>
       </c>
       <c r="BY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA104" t="n">
         <v>32818</v>
       </c>
     </row>
@@ -25257,6 +25885,12 @@
         <v>0</v>
       </c>
       <c r="BY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA105" t="n">
         <v>41096</v>
       </c>
     </row>
@@ -25492,6 +26126,12 @@
         <v>0</v>
       </c>
       <c r="BY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA106" t="n">
         <v>27321</v>
       </c>
     </row>
@@ -25727,6 +26367,12 @@
         <v>0</v>
       </c>
       <c r="BY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA107" t="n">
         <v>18091</v>
       </c>
     </row>
@@ -25962,6 +26608,12 @@
         <v>0</v>
       </c>
       <c r="BY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA108" t="n">
         <v>4170</v>
       </c>
     </row>
@@ -26197,6 +26849,12 @@
         <v>0</v>
       </c>
       <c r="BY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA109" t="n">
         <v>1483</v>
       </c>
     </row>
@@ -26432,6 +27090,12 @@
         <v>0</v>
       </c>
       <c r="BY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA110" t="n">
         <v>806</v>
       </c>
     </row>
@@ -26667,6 +27331,12 @@
         <v>0</v>
       </c>
       <c r="BY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA111" t="n">
         <v>1382</v>
       </c>
     </row>
@@ -26902,6 +27572,12 @@
         <v>0</v>
       </c>
       <c r="BY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA112" t="n">
         <v>7228</v>
       </c>
     </row>
@@ -27137,6 +27813,12 @@
         <v>0</v>
       </c>
       <c r="BY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA113" t="n">
         <v>11532</v>
       </c>
     </row>
@@ -27372,6 +28054,12 @@
         <v>0</v>
       </c>
       <c r="BY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA114" t="n">
         <v>25205</v>
       </c>
     </row>
@@ -27607,6 +28295,12 @@
         <v>0</v>
       </c>
       <c r="BY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA115" t="n">
         <v>29374</v>
       </c>
     </row>
@@ -27842,6 +28536,12 @@
         <v>0</v>
       </c>
       <c r="BY116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA116" t="n">
         <v>36559</v>
       </c>
     </row>
@@ -28077,6 +28777,12 @@
         <v>0</v>
       </c>
       <c r="BY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA117" t="n">
         <v>46726</v>
       </c>
     </row>
@@ -28312,6 +29018,12 @@
         <v>0</v>
       </c>
       <c r="BY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA118" t="n">
         <v>30894</v>
       </c>
     </row>
@@ -28547,6 +29259,12 @@
         <v>0</v>
       </c>
       <c r="BY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA119" t="n">
         <v>19607</v>
       </c>
     </row>
@@ -28782,6 +29500,12 @@
         <v>0</v>
       </c>
       <c r="BY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA120" t="n">
         <v>4907</v>
       </c>
     </row>
@@ -29017,6 +29741,12 @@
         <v>0</v>
       </c>
       <c r="BY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA121" t="n">
         <v>1659</v>
       </c>
     </row>
@@ -29252,6 +29982,12 @@
         <v>0</v>
       </c>
       <c r="BY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA122" t="n">
         <v>906</v>
       </c>
     </row>
@@ -29487,6 +30223,12 @@
         <v>0</v>
       </c>
       <c r="BY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA123" t="n">
         <v>970</v>
       </c>
     </row>
@@ -29722,6 +30464,12 @@
         <v>0</v>
       </c>
       <c r="BY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA124" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -29957,6 +30705,12 @@
         <v>0</v>
       </c>
       <c r="BY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA125" t="n">
         <v>17347</v>
       </c>
     </row>
@@ -30192,6 +30946,12 @@
         <v>0</v>
       </c>
       <c r="BY126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA126" t="n">
         <v>27354</v>
       </c>
     </row>
@@ -30427,6 +31187,12 @@
         <v>0</v>
       </c>
       <c r="BY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA127" t="n">
         <v>33021</v>
       </c>
     </row>
@@ -30662,6 +31428,12 @@
         <v>0</v>
       </c>
       <c r="BY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA128" t="n">
         <v>39581</v>
       </c>
     </row>
@@ -30897,6 +31669,12 @@
         <v>0</v>
       </c>
       <c r="BY129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA129" t="n">
         <v>51218</v>
       </c>
     </row>
@@ -31132,6 +31910,12 @@
         <v>0</v>
       </c>
       <c r="BY130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA130" t="n">
         <v>34457</v>
       </c>
     </row>
@@ -31367,6 +32151,12 @@
         <v>0</v>
       </c>
       <c r="BY131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA131" t="n">
         <v>23205</v>
       </c>
     </row>
@@ -31602,6 +32392,12 @@
         <v>0</v>
       </c>
       <c r="BY132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA132" t="n">
         <v>4803</v>
       </c>
     </row>
@@ -31837,6 +32633,12 @@
         <v>0</v>
       </c>
       <c r="BY133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA133" t="n">
         <v>1870</v>
       </c>
     </row>
@@ -32072,6 +32874,12 @@
         <v>0</v>
       </c>
       <c r="BY134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA134" t="n">
         <v>1217</v>
       </c>
     </row>
@@ -32307,6 +33115,12 @@
         <v>0</v>
       </c>
       <c r="BY135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA135" t="n">
         <v>1544</v>
       </c>
     </row>
@@ -32542,6 +33356,12 @@
         <v>0</v>
       </c>
       <c r="BY136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA136" t="n">
         <v>5080</v>
       </c>
     </row>
@@ -32777,6 +33597,12 @@
         <v>0</v>
       </c>
       <c r="BY137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA137" t="n">
         <v>17721</v>
       </c>
     </row>
@@ -33012,6 +33838,12 @@
         <v>0</v>
       </c>
       <c r="BY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA138" t="n">
         <v>31076</v>
       </c>
     </row>
@@ -33247,6 +34079,12 @@
         <v>0</v>
       </c>
       <c r="BY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA139" t="n">
         <v>35923</v>
       </c>
     </row>
@@ -33482,6 +34320,12 @@
         <v>0</v>
       </c>
       <c r="BY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA140" t="n">
         <v>44794</v>
       </c>
     </row>
@@ -33717,6 +34561,12 @@
         <v>0</v>
       </c>
       <c r="BY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA141" t="n">
         <v>54794</v>
       </c>
     </row>
@@ -33952,6 +34802,12 @@
         <v>0</v>
       </c>
       <c r="BY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA142" t="n">
         <v>37429</v>
       </c>
     </row>
@@ -34187,6 +35043,12 @@
         <v>0</v>
       </c>
       <c r="BY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA143" t="n">
         <v>25576</v>
       </c>
     </row>
@@ -34422,6 +35284,12 @@
         <v>0</v>
       </c>
       <c r="BY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA144" t="n">
         <v>5228</v>
       </c>
     </row>
@@ -34657,6 +35525,12 @@
         <v>0</v>
       </c>
       <c r="BY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA145" t="n">
         <v>2062</v>
       </c>
     </row>
@@ -34892,6 +35766,12 @@
         <v>0</v>
       </c>
       <c r="BY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA146" t="n">
         <v>1304</v>
       </c>
     </row>
@@ -35127,6 +36007,12 @@
         <v>0</v>
       </c>
       <c r="BY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA147" t="n">
         <v>1733</v>
       </c>
     </row>
@@ -35362,6 +36248,12 @@
         <v>0</v>
       </c>
       <c r="BY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA148" t="n">
         <v>11067</v>
       </c>
     </row>
@@ -35597,6 +36489,12 @@
         <v>0</v>
       </c>
       <c r="BY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA149" t="n">
         <v>15100</v>
       </c>
     </row>
@@ -35832,6 +36730,12 @@
         <v>0</v>
       </c>
       <c r="BY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA150" t="n">
         <v>32776</v>
       </c>
     </row>
@@ -36067,6 +36971,12 @@
         <v>0</v>
       </c>
       <c r="BY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA151" t="n">
         <v>39070</v>
       </c>
     </row>
@@ -36302,6 +37212,12 @@
         <v>0</v>
       </c>
       <c r="BY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA152" t="n">
         <v>45471</v>
       </c>
     </row>
@@ -36537,6 +37453,12 @@
         <v>0</v>
       </c>
       <c r="BY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA153" t="n">
         <v>53704</v>
       </c>
     </row>
@@ -36772,6 +37694,12 @@
         <v>0</v>
       </c>
       <c r="BY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA154" t="n">
         <v>40149</v>
       </c>
     </row>
@@ -37007,6 +37935,12 @@
         <v>0</v>
       </c>
       <c r="BY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA155" t="n">
         <v>28222</v>
       </c>
     </row>
@@ -37242,6 +38176,12 @@
         <v>0</v>
       </c>
       <c r="BY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA156" t="n">
         <v>6394</v>
       </c>
     </row>
@@ -37477,6 +38417,12 @@
         <v>0</v>
       </c>
       <c r="BY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA157" t="n">
         <v>2864</v>
       </c>
     </row>
@@ -37712,6 +38658,12 @@
         <v>0</v>
       </c>
       <c r="BY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA158" t="n">
         <v>1354</v>
       </c>
     </row>
@@ -37947,6 +38899,12 @@
         <v>0</v>
       </c>
       <c r="BY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA159" t="n">
         <v>1696</v>
       </c>
     </row>
@@ -38182,6 +39140,12 @@
         <v>0</v>
       </c>
       <c r="BY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA160" t="n">
         <v>5176</v>
       </c>
     </row>
@@ -38417,6 +39381,12 @@
         <v>0</v>
       </c>
       <c r="BY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA161" t="n">
         <v>26925</v>
       </c>
     </row>
@@ -38652,6 +39622,12 @@
         <v>0</v>
       </c>
       <c r="BY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA162" t="n">
         <v>35347</v>
       </c>
     </row>
@@ -38887,6 +39863,12 @@
         <v>0</v>
       </c>
       <c r="BY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA163" t="n">
         <v>41619</v>
       </c>
     </row>
@@ -39122,6 +40104,12 @@
         <v>0</v>
       </c>
       <c r="BY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA164" t="n">
         <v>47470</v>
       </c>
     </row>
@@ -39357,6 +40345,12 @@
         <v>0</v>
       </c>
       <c r="BY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA165" t="n">
         <v>57680</v>
       </c>
     </row>
@@ -39592,6 +40586,12 @@
         <v>0</v>
       </c>
       <c r="BY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA166" t="n">
         <v>42189</v>
       </c>
     </row>
@@ -39827,6 +40827,12 @@
         <v>0</v>
       </c>
       <c r="BY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA167" t="n">
         <v>31341</v>
       </c>
     </row>
@@ -40062,6 +41068,12 @@
         <v>0</v>
       </c>
       <c r="BY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA168" t="n">
         <v>7346</v>
       </c>
     </row>
@@ -40297,6 +41309,12 @@
         <v>0</v>
       </c>
       <c r="BY169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA169" t="n">
         <v>2893</v>
       </c>
     </row>
@@ -40532,6 +41550,12 @@
         <v>0</v>
       </c>
       <c r="BY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA170" t="n">
         <v>1627</v>
       </c>
     </row>
@@ -40767,6 +41791,12 @@
         <v>0</v>
       </c>
       <c r="BY171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA171" t="n">
         <v>2181</v>
       </c>
     </row>
@@ -41002,6 +42032,12 @@
         <v>0</v>
       </c>
       <c r="BY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA172" t="n">
         <v>11056</v>
       </c>
     </row>
@@ -41237,6 +42273,12 @@
         <v>0</v>
       </c>
       <c r="BY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA173" t="n">
         <v>22068</v>
       </c>
     </row>
@@ -41472,6 +42514,12 @@
         <v>0</v>
       </c>
       <c r="BY174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA174" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -41707,6 +42755,12 @@
         <v>0</v>
       </c>
       <c r="BY175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA175" t="n">
         <v>45685</v>
       </c>
     </row>
@@ -41942,6 +42996,12 @@
         <v>0</v>
       </c>
       <c r="BY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA176" t="n">
         <v>50867</v>
       </c>
     </row>
@@ -42177,6 +43237,12 @@
         <v>0</v>
       </c>
       <c r="BY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA177" t="n">
         <v>60415</v>
       </c>
     </row>
@@ -42412,6 +43478,12 @@
         <v>0</v>
       </c>
       <c r="BY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA178" t="n">
         <v>47006</v>
       </c>
     </row>
@@ -42647,6 +43719,12 @@
         <v>0</v>
       </c>
       <c r="BY179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA179" t="n">
         <v>35602</v>
       </c>
     </row>
@@ -42882,6 +43960,12 @@
         <v>0</v>
       </c>
       <c r="BY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA180" t="n">
         <v>7651</v>
       </c>
     </row>
@@ -43117,6 +44201,12 @@
         <v>0</v>
       </c>
       <c r="BY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA181" t="n">
         <v>2553</v>
       </c>
     </row>
@@ -43352,6 +44442,12 @@
         <v>0</v>
       </c>
       <c r="BY182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA182" t="n">
         <v>1651</v>
       </c>
     </row>
@@ -43587,6 +44683,12 @@
         <v>0</v>
       </c>
       <c r="BY183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA183" t="n">
         <v>2119</v>
       </c>
     </row>
@@ -43822,6 +44924,12 @@
         <v>0</v>
       </c>
       <c r="BY184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA184" t="n">
         <v>7474</v>
       </c>
     </row>
@@ -44057,6 +45165,12 @@
         <v>0</v>
       </c>
       <c r="BY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA185" t="n">
         <v>31722</v>
       </c>
     </row>
@@ -44292,6 +45406,12 @@
         <v>0</v>
       </c>
       <c r="BY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA186" t="n">
         <v>46673</v>
       </c>
     </row>
@@ -44527,6 +45647,12 @@
         <v>0</v>
       </c>
       <c r="BY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA187" t="n">
         <v>49058</v>
       </c>
     </row>
@@ -44762,6 +45888,12 @@
         <v>0</v>
       </c>
       <c r="BY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA188" t="n">
         <v>53319</v>
       </c>
     </row>
@@ -44997,6 +46129,12 @@
         <v>0</v>
       </c>
       <c r="BY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA189" t="n">
         <v>62814</v>
       </c>
     </row>
@@ -45232,6 +46370,12 @@
         <v>0</v>
       </c>
       <c r="BY190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA190" t="n">
         <v>45653</v>
       </c>
     </row>
@@ -45467,6 +46611,12 @@
         <v>0</v>
       </c>
       <c r="BY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA191" t="n">
         <v>36118</v>
       </c>
     </row>
@@ -45702,6 +46852,12 @@
         <v>0</v>
       </c>
       <c r="BY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA192" t="n">
         <v>8274</v>
       </c>
     </row>
@@ -45937,6 +47093,12 @@
         <v>0</v>
       </c>
       <c r="BY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA193" t="n">
         <v>2710</v>
       </c>
     </row>
@@ -46172,6 +47334,12 @@
         <v>0</v>
       </c>
       <c r="BY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA194" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -46407,6 +47575,12 @@
         <v>0</v>
       </c>
       <c r="BY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA195" t="n">
         <v>3076</v>
       </c>
     </row>
@@ -46642,6 +47816,12 @@
         <v>0</v>
       </c>
       <c r="BY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA196" t="n">
         <v>1948</v>
       </c>
     </row>
@@ -46877,6 +48057,12 @@
         <v>0</v>
       </c>
       <c r="BY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA197" t="n">
         <v>12</v>
       </c>
     </row>
@@ -47112,6 +48298,12 @@
         <v>0</v>
       </c>
       <c r="BY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA198" t="n">
         <v>9752</v>
       </c>
     </row>
@@ -47347,6 +48539,12 @@
         <v>0</v>
       </c>
       <c r="BY199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA199" t="n">
         <v>19812</v>
       </c>
     </row>
@@ -47582,6 +48780,12 @@
         <v>0</v>
       </c>
       <c r="BY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA200" t="n">
         <v>10441</v>
       </c>
     </row>
@@ -47817,6 +49021,12 @@
         <v>0</v>
       </c>
       <c r="BY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA201" t="n">
         <v>6418</v>
       </c>
     </row>
@@ -48052,6 +49262,12 @@
         <v>0</v>
       </c>
       <c r="BY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA202" t="n">
         <v>585</v>
       </c>
     </row>
@@ -48287,6 +49503,12 @@
         <v>0</v>
       </c>
       <c r="BY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA203" t="n">
         <v>99</v>
       </c>
     </row>
@@ -48522,6 +49744,12 @@
         <v>0</v>
       </c>
       <c r="BY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA204" t="n">
         <v>60</v>
       </c>
     </row>
@@ -48757,6 +49985,12 @@
         <v>0</v>
       </c>
       <c r="BY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA205" t="n">
         <v>14</v>
       </c>
     </row>
@@ -48992,6 +50226,12 @@
         <v>0</v>
       </c>
       <c r="BY206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA206" t="n">
         <v>194</v>
       </c>
     </row>
@@ -49227,6 +50467,12 @@
         <v>0</v>
       </c>
       <c r="BY207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA207" t="n">
         <v>1024</v>
       </c>
     </row>
@@ -49462,6 +50708,12 @@
         <v>0</v>
       </c>
       <c r="BY208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ208" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA208" t="n">
         <v>4295</v>
       </c>
     </row>
@@ -49697,6 +50949,12 @@
         <v>0</v>
       </c>
       <c r="BY209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA209" t="n">
         <v>14824</v>
       </c>
     </row>
@@ -49932,6 +51190,12 @@
         <v>0</v>
       </c>
       <c r="BY210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA210" t="n">
         <v>33963</v>
       </c>
     </row>
@@ -50167,6 +51431,12 @@
         <v>0</v>
       </c>
       <c r="BY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA211" t="n">
         <v>43575</v>
       </c>
     </row>
@@ -50402,6 +51672,12 @@
         <v>0</v>
       </c>
       <c r="BY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA212" t="n">
         <v>37463</v>
       </c>
     </row>
@@ -50637,6 +51913,12 @@
         <v>0</v>
       </c>
       <c r="BY213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA213" t="n">
         <v>31170</v>
       </c>
     </row>
@@ -50872,6 +52154,12 @@
         <v>0</v>
       </c>
       <c r="BY214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA214" t="n">
         <v>9094</v>
       </c>
     </row>
@@ -51107,6 +52395,12 @@
         <v>0</v>
       </c>
       <c r="BY215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA215" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -51342,6 +52636,12 @@
         <v>18</v>
       </c>
       <c r="BY216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ216" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA216" t="n">
         <v>1617</v>
       </c>
     </row>
@@ -51577,6 +52877,12 @@
         <v>0</v>
       </c>
       <c r="BY217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA217" t="n">
         <v>2034</v>
       </c>
     </row>
@@ -51812,6 +53118,12 @@
         <v>0</v>
       </c>
       <c r="BY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA218" t="n">
         <v>7389</v>
       </c>
     </row>
@@ -52047,6 +53359,12 @@
         <v>0</v>
       </c>
       <c r="BY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA219" t="n">
         <v>34283</v>
       </c>
     </row>
@@ -52282,6 +53600,12 @@
         <v>0</v>
       </c>
       <c r="BY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA220" t="n">
         <v>48254</v>
       </c>
     </row>
@@ -52517,6 +53841,12 @@
         <v>0</v>
       </c>
       <c r="BY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA221" t="n">
         <v>58012</v>
       </c>
     </row>
@@ -52752,6 +54082,12 @@
         <v>0</v>
       </c>
       <c r="BY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA222" t="n">
         <v>67374</v>
       </c>
     </row>
@@ -52987,6 +54323,12 @@
         <v>0</v>
       </c>
       <c r="BY223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA223" t="n">
         <v>85842</v>
       </c>
     </row>
@@ -53222,6 +54564,12 @@
         <v>0</v>
       </c>
       <c r="BY224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA224" t="n">
         <v>66196</v>
       </c>
     </row>
@@ -53457,7 +54805,495 @@
         <v>0</v>
       </c>
       <c r="BY225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2333</v>
+      </c>
+      <c r="E226" t="n">
+        <v>316</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>178</v>
+      </c>
+      <c r="H226" t="n">
+        <v>172</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1606</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>216</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>143</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2350</v>
+      </c>
+      <c r="O226" t="n">
+        <v>503</v>
+      </c>
+      <c r="P226" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>376</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>281</v>
+      </c>
+      <c r="U226" t="n">
+        <v>174</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>291</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>759</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>203</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>247</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>189</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>169</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY226" t="n">
+        <v>150</v>
+      </c>
+      <c r="BZ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E227" t="n">
+        <v>217</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>61</v>
+      </c>
+      <c r="H227" t="n">
+        <v>94</v>
+      </c>
+      <c r="I227" t="n">
+        <v>351</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>67</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>980</v>
+      </c>
+      <c r="O227" t="n">
+        <v>422</v>
+      </c>
+      <c r="P227" t="n">
+        <v>328</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>70</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>82</v>
+      </c>
+      <c r="U227" t="n">
+        <v>52</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>141</v>
+      </c>
+      <c r="X227" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>238</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>147</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>69</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>73</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ227" t="n">
+        <v>65</v>
+      </c>
+      <c r="CA227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_origin_wide.xlsx
+++ b/Data/Excel_Wide/camino_origin_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA227"/>
+  <dimension ref="A1:CA228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Vilafranca</t>
+          <t>Villafranca del Bierzo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -843,37 +843,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="E2" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G2" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -1084,29 +1084,29 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="E3" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
         <v>58</v>
       </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>166</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="n">
-        <v>68</v>
-      </c>
-      <c r="K3" t="n">
-        <v>116</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="O3" t="n">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="P3" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -1325,28 +1325,28 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1484</v>
+        <v>742</v>
       </c>
       <c r="E4" t="n">
-        <v>1152</v>
+        <v>576</v>
       </c>
       <c r="F4" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="G4" t="n">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J4" t="n">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1204</v>
+        <v>602</v>
       </c>
       <c r="O4" t="n">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="P4" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -1566,28 +1566,28 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>9702</v>
+        <v>4851</v>
       </c>
       <c r="E5" t="n">
-        <v>4724</v>
+        <v>2362</v>
       </c>
       <c r="F5" t="n">
-        <v>1072</v>
+        <v>536</v>
       </c>
       <c r="G5" t="n">
-        <v>1514</v>
+        <v>757</v>
       </c>
       <c r="H5" t="n">
-        <v>1566</v>
+        <v>783</v>
       </c>
       <c r="I5" t="n">
-        <v>784</v>
+        <v>392</v>
       </c>
       <c r="J5" t="n">
-        <v>1018</v>
+        <v>509</v>
       </c>
       <c r="K5" t="n">
-        <v>1210</v>
+        <v>605</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5666</v>
+        <v>2833</v>
       </c>
       <c r="O5" t="n">
-        <v>2924</v>
+        <v>1462</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>928</v>
+        <v>464</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -1807,40 +1807,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5658</v>
+        <v>2829</v>
       </c>
       <c r="E6" t="n">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1618</v>
+        <v>809</v>
       </c>
       <c r="H6" t="n">
-        <v>3096</v>
+        <v>1548</v>
       </c>
       <c r="I6" t="n">
-        <v>2722</v>
+        <v>1361</v>
       </c>
       <c r="J6" t="n">
-        <v>1146</v>
+        <v>573</v>
       </c>
       <c r="K6" t="n">
-        <v>2040</v>
+        <v>1020</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="N6" t="n">
-        <v>9454</v>
+        <v>4727</v>
       </c>
       <c r="O6" t="n">
-        <v>2156</v>
+        <v>1078</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>830</v>
+        <v>415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -2048,40 +2048,40 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6628</v>
+        <v>3314</v>
       </c>
       <c r="E7" t="n">
-        <v>4932</v>
+        <v>2466</v>
       </c>
       <c r="F7" t="n">
-        <v>848</v>
+        <v>424</v>
       </c>
       <c r="G7" t="n">
-        <v>1804</v>
+        <v>902</v>
       </c>
       <c r="H7" t="n">
-        <v>3896</v>
+        <v>1948</v>
       </c>
       <c r="I7" t="n">
-        <v>3378</v>
+        <v>1689</v>
       </c>
       <c r="J7" t="n">
-        <v>1462</v>
+        <v>731</v>
       </c>
       <c r="K7" t="n">
-        <v>1822</v>
+        <v>911</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>966</v>
+        <v>483</v>
       </c>
       <c r="N7" t="n">
-        <v>11516</v>
+        <v>5758</v>
       </c>
       <c r="O7" t="n">
-        <v>1338</v>
+        <v>669</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -2289,28 +2289,28 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>12542</v>
+        <v>6271</v>
       </c>
       <c r="E8" t="n">
-        <v>7370</v>
+        <v>3685</v>
       </c>
       <c r="F8" t="n">
-        <v>2248</v>
+        <v>1124</v>
       </c>
       <c r="G8" t="n">
-        <v>5336</v>
+        <v>2668</v>
       </c>
       <c r="H8" t="n">
-        <v>4054</v>
+        <v>2027</v>
       </c>
       <c r="I8" t="n">
-        <v>2530</v>
+        <v>1265</v>
       </c>
       <c r="J8" t="n">
-        <v>3476</v>
+        <v>1738</v>
       </c>
       <c r="K8" t="n">
-        <v>3634</v>
+        <v>1817</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2319,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>17344</v>
+        <v>8672</v>
       </c>
       <c r="O8" t="n">
-        <v>4180</v>
+        <v>2090</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1068</v>
+        <v>534</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="CA8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -2530,28 +2530,28 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>18940</v>
+        <v>9470</v>
       </c>
       <c r="E9" t="n">
-        <v>8028</v>
+        <v>4014</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5690</v>
+        <v>2845</v>
       </c>
       <c r="H9" t="n">
-        <v>5960</v>
+        <v>2980</v>
       </c>
       <c r="I9" t="n">
-        <v>3286</v>
+        <v>1643</v>
       </c>
       <c r="J9" t="n">
-        <v>3120</v>
+        <v>1560</v>
       </c>
       <c r="K9" t="n">
-        <v>4698</v>
+        <v>2349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24802</v>
+        <v>12401</v>
       </c>
       <c r="O9" t="n">
-        <v>5030</v>
+        <v>2515</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6358</v>
+        <v>3179</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>5290</v>
+        <v>2645</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -2771,40 +2771,40 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>11576</v>
+        <v>5788</v>
       </c>
       <c r="E10" t="n">
-        <v>4630</v>
+        <v>2315</v>
       </c>
       <c r="F10" t="n">
-        <v>1096</v>
+        <v>548</v>
       </c>
       <c r="G10" t="n">
-        <v>2924</v>
+        <v>1462</v>
       </c>
       <c r="H10" t="n">
-        <v>3572</v>
+        <v>1786</v>
       </c>
       <c r="I10" t="n">
-        <v>2576</v>
+        <v>1288</v>
       </c>
       <c r="J10" t="n">
-        <v>1954</v>
+        <v>977</v>
       </c>
       <c r="K10" t="n">
-        <v>2722</v>
+        <v>1361</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1102</v>
+        <v>551</v>
       </c>
       <c r="N10" t="n">
-        <v>11290</v>
+        <v>5645</v>
       </c>
       <c r="O10" t="n">
-        <v>2062</v>
+        <v>1031</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -3012,28 +3012,28 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>7692</v>
+        <v>3846</v>
       </c>
       <c r="E11" t="n">
-        <v>2894</v>
+        <v>1447</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1370</v>
+        <v>685</v>
       </c>
       <c r="H11" t="n">
-        <v>2398</v>
+        <v>1199</v>
       </c>
       <c r="I11" t="n">
-        <v>2394</v>
+        <v>1197</v>
       </c>
       <c r="J11" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="K11" t="n">
-        <v>1404</v>
+        <v>702</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3042,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>7152</v>
+        <v>3576</v>
       </c>
       <c r="O11" t="n">
-        <v>1370</v>
+        <v>685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>816</v>
+        <v>408</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>672</v>
+        <v>336</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -3253,28 +3253,28 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1966</v>
+        <v>983</v>
       </c>
       <c r="E12" t="n">
-        <v>1532</v>
+        <v>766</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="H12" t="n">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="I12" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="J12" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2432</v>
+        <v>1216</v>
       </c>
       <c r="O12" t="n">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -3494,28 +3494,28 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1964</v>
+        <v>982</v>
       </c>
       <c r="E13" t="n">
-        <v>1474</v>
+        <v>737</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="H13" t="n">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="I13" t="n">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="J13" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="K13" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1718</v>
+        <v>859</v>
       </c>
       <c r="O13" t="n">
-        <v>982</v>
+        <v>491</v>
       </c>
       <c r="P13" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -3735,40 +3735,40 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
         <v>28</v>
       </c>
-      <c r="H14" t="n">
-        <v>22</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18</v>
-      </c>
-      <c r="K14" t="n">
-        <v>56</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="O14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -3976,40 +3976,40 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -4217,28 +4217,28 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2004</v>
+        <v>1002</v>
       </c>
       <c r="E16" t="n">
-        <v>790</v>
+        <v>395</v>
       </c>
       <c r="F16" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="H16" t="n">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="K16" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -4247,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1492</v>
+        <v>746</v>
       </c>
       <c r="O16" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4274,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="X16" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -4458,28 +4458,28 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1212</v>
+        <v>606</v>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="F17" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G17" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="H17" t="n">
-        <v>530</v>
+        <v>265</v>
       </c>
       <c r="I17" t="n">
-        <v>474</v>
+        <v>237</v>
       </c>
       <c r="J17" t="n">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="K17" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1956</v>
+        <v>978</v>
       </c>
       <c r="O17" t="n">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -4699,37 +4699,37 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>2098</v>
+        <v>1049</v>
       </c>
       <c r="E18" t="n">
-        <v>1168</v>
+        <v>584</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="H18" t="n">
-        <v>1694</v>
+        <v>847</v>
       </c>
       <c r="I18" t="n">
-        <v>2668</v>
+        <v>1334</v>
       </c>
       <c r="J18" t="n">
-        <v>622</v>
+        <v>311</v>
       </c>
       <c r="K18" t="n">
-        <v>1356</v>
+        <v>678</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="N18" t="n">
-        <v>5664</v>
+        <v>2832</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>622</v>
+        <v>311</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>676</v>
+        <v>338</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -4940,37 +4940,37 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2676</v>
+        <v>1338</v>
       </c>
       <c r="E19" t="n">
-        <v>1224</v>
+        <v>612</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1156</v>
+        <v>578</v>
       </c>
       <c r="H19" t="n">
-        <v>2998</v>
+        <v>1499</v>
       </c>
       <c r="I19" t="n">
-        <v>3804</v>
+        <v>1902</v>
       </c>
       <c r="J19" t="n">
-        <v>972</v>
+        <v>486</v>
       </c>
       <c r="K19" t="n">
-        <v>1768</v>
+        <v>884</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1266</v>
+        <v>633</v>
       </c>
       <c r="N19" t="n">
-        <v>7542</v>
+        <v>3771</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1044</v>
+        <v>522</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>788</v>
+        <v>394</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="CA19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -5181,40 +5181,40 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>6674</v>
+        <v>3337</v>
       </c>
       <c r="E20" t="n">
-        <v>3274</v>
+        <v>1637</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2718</v>
+        <v>1359</v>
       </c>
       <c r="H20" t="n">
-        <v>3128</v>
+        <v>1564</v>
       </c>
       <c r="I20" t="n">
-        <v>2726</v>
+        <v>1363</v>
       </c>
       <c r="J20" t="n">
-        <v>2482</v>
+        <v>1241</v>
       </c>
       <c r="K20" t="n">
-        <v>2552</v>
+        <v>1276</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="N20" t="n">
-        <v>10976</v>
+        <v>5488</v>
       </c>
       <c r="O20" t="n">
-        <v>1096</v>
+        <v>548</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>954</v>
+        <v>477</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="CA20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -5422,28 +5422,28 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>8858</v>
+        <v>4429</v>
       </c>
       <c r="E21" t="n">
-        <v>4244</v>
+        <v>2122</v>
       </c>
       <c r="F21" t="n">
-        <v>1488</v>
+        <v>744</v>
       </c>
       <c r="G21" t="n">
-        <v>3856</v>
+        <v>1928</v>
       </c>
       <c r="H21" t="n">
-        <v>5412</v>
+        <v>2706</v>
       </c>
       <c r="I21" t="n">
-        <v>4068</v>
+        <v>2034</v>
       </c>
       <c r="J21" t="n">
-        <v>2288</v>
+        <v>1144</v>
       </c>
       <c r="K21" t="n">
-        <v>3594</v>
+        <v>1797</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>12820</v>
+        <v>6410</v>
       </c>
       <c r="O21" t="n">
-        <v>1638</v>
+        <v>819</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1396</v>
+        <v>698</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="CA21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -5663,37 +5663,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>3646</v>
+        <v>1823</v>
       </c>
       <c r="E22" t="n">
-        <v>2238</v>
+        <v>1119</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1514</v>
+        <v>757</v>
       </c>
       <c r="H22" t="n">
-        <v>2380</v>
+        <v>1190</v>
       </c>
       <c r="I22" t="n">
-        <v>2726</v>
+        <v>1363</v>
       </c>
       <c r="J22" t="n">
-        <v>1164</v>
+        <v>582</v>
       </c>
       <c r="K22" t="n">
-        <v>2092</v>
+        <v>1046</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>912</v>
+        <v>456</v>
       </c>
       <c r="N22" t="n">
-        <v>6232</v>
+        <v>3116</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>776</v>
+        <v>388</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -5904,37 +5904,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>1866</v>
+        <v>933</v>
       </c>
       <c r="E23" t="n">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>802</v>
+        <v>401</v>
       </c>
       <c r="H23" t="n">
-        <v>1494</v>
+        <v>747</v>
       </c>
       <c r="I23" t="n">
-        <v>2386</v>
+        <v>1193</v>
       </c>
       <c r="J23" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="K23" t="n">
-        <v>976</v>
+        <v>488</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="N23" t="n">
-        <v>3598</v>
+        <v>1799</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>626</v>
+        <v>313</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -6145,10 +6145,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="E24" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6157,25 +6157,25 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="I24" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="J24" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K24" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="N24" t="n">
-        <v>884</v>
+        <v>442</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="CA24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -6386,28 +6386,28 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I25" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -6416,16 +6416,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="O25" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="P25" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="CA25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -6627,38 +6627,38 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>51</v>
+      </c>
+      <c r="E26" t="n">
+        <v>35</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>29</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>102</v>
       </c>
-      <c r="E26" t="n">
-        <v>70</v>
-      </c>
-      <c r="F26" t="n">
-        <v>28</v>
-      </c>
-      <c r="G26" t="n">
-        <v>34</v>
-      </c>
-      <c r="H26" t="n">
-        <v>58</v>
-      </c>
-      <c r="I26" t="n">
-        <v>28</v>
-      </c>
-      <c r="J26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K26" t="n">
-        <v>50</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>204</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="CA26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -6868,28 +6868,28 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I27" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="CA27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -7109,37 +7109,37 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>596</v>
+        <v>298</v>
       </c>
       <c r="E28" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="F28" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="I28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J28" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="K28" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>572</v>
+        <v>286</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="CA28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -7350,28 +7350,28 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4116</v>
+        <v>2058</v>
       </c>
       <c r="E29" t="n">
-        <v>1158</v>
+        <v>579</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>956</v>
+        <v>478</v>
       </c>
       <c r="H29" t="n">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="I29" t="n">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="J29" t="n">
-        <v>432</v>
+        <v>216</v>
       </c>
       <c r="K29" t="n">
-        <v>698</v>
+        <v>349</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -7380,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4426</v>
+        <v>2213</v>
       </c>
       <c r="O29" t="n">
-        <v>714</v>
+        <v>357</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="CA29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -7591,37 +7591,37 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>2474</v>
+        <v>1237</v>
       </c>
       <c r="E30" t="n">
-        <v>1032</v>
+        <v>516</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>878</v>
+        <v>439</v>
       </c>
       <c r="H30" t="n">
-        <v>1722</v>
+        <v>861</v>
       </c>
       <c r="I30" t="n">
-        <v>3152</v>
+        <v>1576</v>
       </c>
       <c r="J30" t="n">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="K30" t="n">
-        <v>1394</v>
+        <v>697</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>930</v>
+        <v>465</v>
       </c>
       <c r="N30" t="n">
-        <v>6212</v>
+        <v>3106</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>914</v>
+        <v>457</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="CA30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -7832,37 +7832,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>2748</v>
+        <v>1374</v>
       </c>
       <c r="E31" t="n">
-        <v>1334</v>
+        <v>667</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1086</v>
+        <v>543</v>
       </c>
       <c r="H31" t="n">
-        <v>2822</v>
+        <v>1411</v>
       </c>
       <c r="I31" t="n">
-        <v>4262</v>
+        <v>2131</v>
       </c>
       <c r="J31" t="n">
-        <v>926</v>
+        <v>463</v>
       </c>
       <c r="K31" t="n">
-        <v>1748</v>
+        <v>874</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1258</v>
+        <v>629</v>
       </c>
       <c r="N31" t="n">
-        <v>7896</v>
+        <v>3948</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1156</v>
+        <v>578</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>786</v>
+        <v>393</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="CA31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -8073,28 +8073,28 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>6140</v>
+        <v>3070</v>
       </c>
       <c r="E32" t="n">
-        <v>2674</v>
+        <v>1337</v>
       </c>
       <c r="F32" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="G32" t="n">
-        <v>2332</v>
+        <v>1166</v>
       </c>
       <c r="H32" t="n">
-        <v>3146</v>
+        <v>1573</v>
       </c>
       <c r="I32" t="n">
-        <v>2738</v>
+        <v>1369</v>
       </c>
       <c r="J32" t="n">
-        <v>2052</v>
+        <v>1026</v>
       </c>
       <c r="K32" t="n">
-        <v>2574</v>
+        <v>1287</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -8103,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>12888</v>
+        <v>6444</v>
       </c>
       <c r="O32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>872</v>
+        <v>436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="CA32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -8314,37 +8314,37 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>9458</v>
+        <v>4729</v>
       </c>
       <c r="E33" t="n">
-        <v>3970</v>
+        <v>1985</v>
       </c>
       <c r="F33" t="n">
-        <v>1304</v>
+        <v>652</v>
       </c>
       <c r="G33" t="n">
-        <v>3762</v>
+        <v>1881</v>
       </c>
       <c r="H33" t="n">
-        <v>5442</v>
+        <v>2721</v>
       </c>
       <c r="I33" t="n">
-        <v>4262</v>
+        <v>2131</v>
       </c>
       <c r="J33" t="n">
-        <v>2170</v>
+        <v>1085</v>
       </c>
       <c r="K33" t="n">
-        <v>3998</v>
+        <v>1999</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1450</v>
+        <v>725</v>
       </c>
       <c r="N33" t="n">
-        <v>15104</v>
+        <v>7552</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1446</v>
+        <v>723</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="CA33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -8555,37 +8555,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>4056</v>
+        <v>2028</v>
       </c>
       <c r="E34" t="n">
-        <v>1642</v>
+        <v>821</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1654</v>
+        <v>827</v>
       </c>
       <c r="H34" t="n">
-        <v>2418</v>
+        <v>1209</v>
       </c>
       <c r="I34" t="n">
-        <v>3124</v>
+        <v>1562</v>
       </c>
       <c r="J34" t="n">
-        <v>1262</v>
+        <v>631</v>
       </c>
       <c r="K34" t="n">
-        <v>2084</v>
+        <v>1042</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="N34" t="n">
-        <v>7652</v>
+        <v>3826</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>928</v>
+        <v>464</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="CA34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -8796,37 +8796,37 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
       <c r="E35" t="n">
-        <v>716</v>
+        <v>358</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>676</v>
+        <v>338</v>
       </c>
       <c r="H35" t="n">
-        <v>1504</v>
+        <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
       <c r="J35" t="n">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="K35" t="n">
-        <v>928</v>
+        <v>464</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>4230</v>
+        <v>2115</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>788</v>
+        <v>394</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="CA35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -9037,37 +9037,37 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="E36" t="n">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="H36" t="n">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="I36" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="N36" t="n">
-        <v>1148</v>
+        <v>574</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -9112,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="CA36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -9278,28 +9278,28 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="E37" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="F37" t="n">
+        <v>22</v>
+      </c>
+      <c r="G37" t="n">
         <v>44</v>
       </c>
-      <c r="G37" t="n">
-        <v>88</v>
-      </c>
       <c r="H37" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="I37" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="J37" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="K37" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -9308,10 +9308,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="O37" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="CA37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -9519,40 +9519,40 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I38" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K38" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N38" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="O38" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="CA38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -9760,28 +9760,28 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="E39" t="n">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H39" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -9790,10 +9790,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="O39" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="CA39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -10001,37 +10001,37 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E40" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="H40" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>990</v>
+        <v>495</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -10043,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="S40" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="CA40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -10242,40 +10242,40 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>3690</v>
+        <v>1845</v>
       </c>
       <c r="E41" t="n">
-        <v>1096</v>
+        <v>548</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>784</v>
+        <v>392</v>
       </c>
       <c r="H41" t="n">
-        <v>918</v>
+        <v>459</v>
       </c>
       <c r="I41" t="n">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="J41" t="n">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="K41" t="n">
-        <v>1022</v>
+        <v>511</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
       <c r="N41" t="n">
-        <v>5454</v>
+        <v>2727</v>
       </c>
       <c r="O41" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="CA41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -10483,37 +10483,37 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>3392</v>
+        <v>1696</v>
       </c>
       <c r="E42" t="n">
-        <v>1370</v>
+        <v>685</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>882</v>
+        <v>441</v>
       </c>
       <c r="H42" t="n">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="I42" t="n">
-        <v>4120</v>
+        <v>2060</v>
       </c>
       <c r="J42" t="n">
-        <v>980</v>
+        <v>490</v>
       </c>
       <c r="K42" t="n">
-        <v>1852</v>
+        <v>926</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1372</v>
+        <v>686</v>
       </c>
       <c r="N42" t="n">
-        <v>7908</v>
+        <v>3954</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1152</v>
+        <v>576</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="CA42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -10724,37 +10724,37 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>3714</v>
+        <v>1857</v>
       </c>
       <c r="E43" t="n">
-        <v>1552</v>
+        <v>776</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1188</v>
+        <v>594</v>
       </c>
       <c r="H43" t="n">
-        <v>2670</v>
+        <v>1335</v>
       </c>
       <c r="I43" t="n">
-        <v>5484</v>
+        <v>2742</v>
       </c>
       <c r="J43" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
       <c r="K43" t="n">
-        <v>1998</v>
+        <v>999</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1408</v>
+        <v>704</v>
       </c>
       <c r="N43" t="n">
-        <v>9314</v>
+        <v>4657</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>888</v>
+        <v>444</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1122</v>
+        <v>561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="CA43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -10965,40 +10965,40 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>6412</v>
+        <v>3206</v>
       </c>
       <c r="E44" t="n">
-        <v>2698</v>
+        <v>1349</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2508</v>
+        <v>1254</v>
       </c>
       <c r="H44" t="n">
-        <v>2822</v>
+        <v>1411</v>
       </c>
       <c r="I44" t="n">
-        <v>3640</v>
+        <v>1820</v>
       </c>
       <c r="J44" t="n">
-        <v>2204</v>
+        <v>1102</v>
       </c>
       <c r="K44" t="n">
-        <v>2470</v>
+        <v>1235</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>990</v>
+        <v>495</v>
       </c>
       <c r="N44" t="n">
-        <v>14146</v>
+        <v>7073</v>
       </c>
       <c r="O44" t="n">
-        <v>1344</v>
+        <v>672</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1078</v>
+        <v>539</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="CA44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -11206,40 +11206,40 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>10668</v>
+        <v>5334</v>
       </c>
       <c r="E45" t="n">
-        <v>4010</v>
+        <v>2005</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3736</v>
+        <v>1868</v>
       </c>
       <c r="H45" t="n">
-        <v>4898</v>
+        <v>2449</v>
       </c>
       <c r="I45" t="n">
-        <v>4966</v>
+        <v>2483</v>
       </c>
       <c r="J45" t="n">
-        <v>1930</v>
+        <v>965</v>
       </c>
       <c r="K45" t="n">
-        <v>4006</v>
+        <v>2003</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1468</v>
+        <v>734</v>
       </c>
       <c r="N45" t="n">
-        <v>15986</v>
+        <v>7993</v>
       </c>
       <c r="O45" t="n">
-        <v>1652</v>
+        <v>826</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1258</v>
+        <v>629</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="CA45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -11447,37 +11447,37 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>5186</v>
+        <v>2593</v>
       </c>
       <c r="E46" t="n">
-        <v>1924</v>
+        <v>962</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1772</v>
+        <v>886</v>
       </c>
       <c r="H46" t="n">
-        <v>2308</v>
+        <v>1154</v>
       </c>
       <c r="I46" t="n">
-        <v>3872</v>
+        <v>1936</v>
       </c>
       <c r="J46" t="n">
-        <v>1402</v>
+        <v>701</v>
       </c>
       <c r="K46" t="n">
-        <v>2260</v>
+        <v>1130</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1062</v>
+        <v>531</v>
       </c>
       <c r="N46" t="n">
-        <v>9080</v>
+        <v>4540</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>822</v>
+        <v>411</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="CA46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -55296,6 +55296,247 @@
         <v>4683</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>543</v>
+      </c>
+      <c r="E228" t="n">
+        <v>92</v>
+      </c>
+      <c r="F228" t="n">
+        <v>19</v>
+      </c>
+      <c r="G228" t="n">
+        <v>24</v>
+      </c>
+      <c r="H228" t="n">
+        <v>18</v>
+      </c>
+      <c r="I228" t="n">
+        <v>127</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>68</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>24</v>
+      </c>
+      <c r="N228" t="n">
+        <v>313</v>
+      </c>
+      <c r="O228" t="n">
+        <v>114</v>
+      </c>
+      <c r="P228" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>33</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>65</v>
+      </c>
+      <c r="X228" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>224</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>85</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA228" t="n">
+        <v>2028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
